--- a/Daily/Ljung_Box/First Difference/Nippon_tel.xlsx
+++ b/Daily/Ljung_Box/First Difference/Nippon_tel.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.01672287297894948</v>
+        <v>0.2168406045699957</v>
+      </c>
+      <c r="C2">
+        <v>0.641457835889746</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8966048570184871</v>
+        <v>0.2175225873630634</v>
+      </c>
+      <c r="C3">
+        <v>0.8969444982650543</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.930147649701838</v>
+        <v>0.5972341286022755</v>
       </c>
       <c r="C4">
-        <v>0.1647422921811967</v>
+        <v>0.8970652635463698</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.355294179501829</v>
+        <v>0.8264045052256693</v>
       </c>
       <c r="C5">
-        <v>0.308002589138238</v>
+        <v>0.9348735288250777</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.378954711223809</v>
+        <v>0.8788409927237243</v>
       </c>
       <c r="C6">
-        <v>0.4975642193658941</v>
+        <v>0.9717345224295113</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3.916502801674158</v>
+        <v>2.215805085690012</v>
       </c>
       <c r="C7">
-        <v>0.4174238902888789</v>
+        <v>0.8988196832745297</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13.93868855790208</v>
+        <v>5.297625739395654</v>
       </c>
       <c r="C8">
-        <v>0.01600360080478807</v>
+        <v>0.623692548822413</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13.97745223122556</v>
+        <v>5.298884142251573</v>
       </c>
       <c r="C9">
-        <v>0.02988905158983651</v>
+        <v>0.7252053519541652</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14.61284196762115</v>
+        <v>6.039431499460631</v>
       </c>
       <c r="C10">
-        <v>0.04129512820949351</v>
+        <v>0.7359654195882002</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>15.61275202552336</v>
+        <v>6.059027399712353</v>
       </c>
       <c r="C11">
-        <v>0.04827034383257523</v>
+        <v>0.810279863899563</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.42119285359507</v>
+        <v>6.718275307849857</v>
       </c>
       <c r="C12">
-        <v>0.03058973820772517</v>
+        <v>0.8214177223527523</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>18.770619184806</v>
+        <v>7.736004928813518</v>
       </c>
       <c r="C13">
-        <v>0.0432747715455306</v>
+        <v>0.8054055010891447</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>18.89968313825777</v>
+        <v>8.218401245973562</v>
       </c>
       <c r="C14">
-        <v>0.06291816858255708</v>
+        <v>0.8290863585957003</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>19.48663205519421</v>
+        <v>8.671451315782139</v>
       </c>
       <c r="C15">
-        <v>0.07744192638600582</v>
+        <v>0.8515041751738397</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>21.18333065435899</v>
+        <v>12.11097032231535</v>
       </c>
       <c r="C16">
-        <v>0.06938081280780774</v>
+        <v>0.6706107530806971</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>22.09981247369112</v>
+        <v>12.43828768389793</v>
       </c>
       <c r="C17">
-        <v>0.07658662554696663</v>
+        <v>0.7132982776596448</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>28.60675072928149</v>
+        <v>15.45463399656179</v>
       </c>
       <c r="C18">
-        <v>0.01806527825294513</v>
+        <v>0.5627703597633067</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>28.94237919451421</v>
+        <v>15.51565219273176</v>
       </c>
       <c r="C19">
-        <v>0.02432755775547896</v>
+        <v>0.6263096637167079</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>28.96857743709255</v>
+        <v>15.99498275114715</v>
       </c>
       <c r="C20">
-        <v>0.03481695851846683</v>
+        <v>0.6576127304629529</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>32.43400112568348</v>
+        <v>20.66434029773042</v>
       </c>
       <c r="C21">
-        <v>0.0195227013259211</v>
+        <v>0.4171204322137265</v>
       </c>
     </row>
   </sheetData>
